--- a/results/05-2022/contributions-comparison-05-2022.xlsx
+++ b/results/05-2022/contributions-comparison-05-2022.xlsx
@@ -584,28 +584,28 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="n">
-        <v>0.0051</v>
+        <v>0.0109</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0051</v>
+        <v>0.0076</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0051</v>
+        <v>0.0068</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0052</v>
+        <v>0.0062</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0052</v>
+        <v>0.0058</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0052</v>
+        <v>0.0056</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0052</v>
+        <v>0.0055</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0052</v>
+        <v>0.0053</v>
       </c>
       <c r="P3" t="n">
         <v>0.0052</v>
@@ -658,31 +658,31 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>273.2</v>
+        <v>286.521</v>
       </c>
       <c r="I5" t="n">
-        <v>274.725</v>
+        <v>289.086</v>
       </c>
       <c r="J5" t="n">
-        <v>276.219</v>
+        <v>291.41</v>
       </c>
       <c r="K5" t="n">
-        <v>277.776</v>
+        <v>293.561</v>
       </c>
       <c r="L5" t="n">
-        <v>279.358</v>
+        <v>295.516</v>
       </c>
       <c r="M5" t="n">
-        <v>280.97</v>
+        <v>297.365</v>
       </c>
       <c r="N5" t="n">
-        <v>282.605</v>
+        <v>299.155</v>
       </c>
       <c r="O5" t="n">
-        <v>284.262</v>
+        <v>300.906</v>
       </c>
       <c r="P5" t="n">
-        <v>285.94</v>
+        <v>302.646</v>
       </c>
     </row>
     <row r="6">
@@ -732,22 +732,22 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.0266</v>
+        <v>0.0263</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0266</v>
+        <v>0.0257</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0369</v>
+        <v>-0.0364</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0362</v>
+        <v>-0.0355</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0003</v>
       </c>
       <c r="N7" t="n">
         <v>-0.0072</v>
@@ -756,7 +756,7 @@
         <v>-0.0071</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0183</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="8">
@@ -806,31 +806,31 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="n">
-        <v>0.0658</v>
+        <v>-0.0824</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0253</v>
+        <v>-0.045</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0357</v>
+        <v>-0.0495</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2066</v>
+        <v>-0.2023</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0715</v>
+        <v>-0.0623</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1875</v>
+        <v>-0.1657</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.2017</v>
+        <v>-0.1831</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.3404</v>
+        <v>-0.3165</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4701</v>
+        <v>-0.4454</v>
       </c>
     </row>
     <row r="10">
@@ -880,31 +880,31 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" t="n">
-        <v>-0.0134</v>
+        <v>-0.0126</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0178</v>
+        <v>-0.0164</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0092</v>
+        <v>-0.0077</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0485</v>
+        <v>-0.0458</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0519</v>
+        <v>-0.0489</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0338</v>
+        <v>-0.0312</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0277</v>
+        <v>-0.0252</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0183</v>
+        <v>-0.0162</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0064</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="12">
@@ -954,31 +954,31 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>0.1634</v>
+        <v>0.1353</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2234</v>
+        <v>0.1813</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2512</v>
+        <v>0.2009</v>
       </c>
       <c r="K13" t="n">
-        <v>0.173</v>
+        <v>0.1206</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1534</v>
+        <v>0.1261</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001</v>
+        <v>-0.0138</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1155</v>
+        <v>-0.1178</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1084</v>
+        <v>-0.1074</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1562</v>
+        <v>-0.1514</v>
       </c>
     </row>
     <row r="14">
@@ -1028,31 +1028,31 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="n">
-        <v>-1.1196</v>
+        <v>-1.0758</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.0962</v>
+        <v>-1.0172</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.8168</v>
+        <v>-0.7489</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.5263</v>
+        <v>-0.4655</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.4319</v>
+        <v>-0.3754</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.352</v>
+        <v>-0.2988</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.2376</v>
+        <v>-0.1888</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0124</v>
+        <v>0.0271</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1423</v>
+        <v>0.1549</v>
       </c>
     </row>
     <row r="16">
@@ -1102,31 +1102,31 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="n">
-        <v>0.0002</v>
+        <v>-0.0007</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1901</v>
+        <v>-0.1876</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1222</v>
+        <v>-0.1201</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0622</v>
+        <v>-0.0609</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0517</v>
+        <v>-0.0505</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0234</v>
+        <v>-0.0229</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0335</v>
+        <v>-0.0326</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0664</v>
+        <v>-0.0642</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0563</v>
+        <v>-0.0544</v>
       </c>
     </row>
     <row r="18">
@@ -1176,31 +1176,31 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="n">
-        <v>0.0889</v>
+        <v>0.088</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0536</v>
+        <v>0.0515</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0931</v>
+        <v>-0.0922</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0814</v>
+        <v>-0.0802</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0963</v>
+        <v>-0.094</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0961</v>
+        <v>-0.0932</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.085</v>
+        <v>-0.0822</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0543</v>
+        <v>-0.0525</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0522</v>
+        <v>-0.0502</v>
       </c>
     </row>
     <row r="20">
@@ -1250,31 +1250,31 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" t="n">
-        <v>0.0044</v>
+        <v>0.0083</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0049</v>
+        <v>0.0075</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.0058</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0051</v>
+        <v>0.0054</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0051</v>
+        <v>0.0053</v>
       </c>
       <c r="M21" t="n">
         <v>0.0054</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0054</v>
+        <v>0.0055</v>
       </c>
       <c r="O21" t="n">
         <v>0.0055</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0054</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="22">
@@ -1324,31 +1324,31 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="n">
-        <v>-0.1354</v>
+        <v>-0.1718</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.9879</v>
+        <v>-1.0194</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.6233</v>
+        <v>-0.6648</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.2097</v>
+        <v>-0.2634</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0184</v>
+        <v>-0.0447</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2061</v>
+        <v>0.1835</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0782</v>
+        <v>0.0672</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0081</v>
+        <v>-0.0117</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0089</v>
+        <v>-0.0103</v>
       </c>
     </row>
     <row r="24">
@@ -1398,31 +1398,31 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="n">
-        <v>-0.1942</v>
+        <v>-0.1949</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1801</v>
+        <v>-0.1775</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0666</v>
+        <v>-0.0656</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0546</v>
+        <v>-0.0536</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6197</v>
+        <v>-0.6002</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6559</v>
+        <v>-0.6329</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3211</v>
+        <v>-0.3093</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.197</v>
+        <v>-0.1898</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.3383</v>
+        <v>-0.3251</v>
       </c>
     </row>
     <row r="26">
@@ -1475,22 +1475,22 @@
         <v>-1.4714</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.0278</v>
+        <v>-1.0099</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.4198</v>
+        <v>-0.4101</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.4106</v>
+        <v>-0.399</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3146</v>
+        <v>-0.3045</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.147</v>
+        <v>-0.1418</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0047</v>
+        <v>-0.0045</v>
       </c>
       <c r="O27" t="n">
         <v>0.0007</v>
@@ -1546,31 +1546,31 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29" t="n">
-        <v>-3.6893</v>
+        <v>-4.1001</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.4815</v>
+        <v>-3.5726</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.2885</v>
+        <v>-2.3133</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.0115</v>
+        <v>-2.016</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.0404</v>
+        <v>-2.9031</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.2882</v>
+        <v>-1.1515</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.9411</v>
+        <v>-0.8051</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.6559</v>
+        <v>-0.5249</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.6653</v>
+        <v>-0.5631</v>
       </c>
     </row>
     <row r="30">
@@ -1620,31 +1620,31 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" t="n">
-        <v>24520.4</v>
+        <v>24956.9</v>
       </c>
       <c r="I31" t="n">
-        <v>24798.4</v>
+        <v>25388.3</v>
       </c>
       <c r="J31" t="n">
-        <v>25043.6</v>
+        <v>25773.5</v>
       </c>
       <c r="K31" t="n">
-        <v>25255</v>
+        <v>26095.1</v>
       </c>
       <c r="L31" t="n">
-        <v>25458.8</v>
+        <v>26403.7</v>
       </c>
       <c r="M31" t="n">
-        <v>25667.5</v>
+        <v>26686.3</v>
       </c>
       <c r="N31" t="n">
-        <v>25876.7</v>
+        <v>26931.4</v>
       </c>
       <c r="O31" t="n">
-        <v>26078.1</v>
+        <v>27173.9</v>
       </c>
       <c r="P31" t="n">
-        <v>26293.7</v>
+        <v>27411.1</v>
       </c>
     </row>
     <row r="32">
@@ -1694,31 +1694,31 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="n">
-        <v>-0.0344</v>
+        <v>-0.0953</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0217</v>
+        <v>0.0038</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.012</v>
+        <v>-0.0174</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.1982</v>
+        <v>-0.1948</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.042</v>
+        <v>-0.0354</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.1288</v>
+        <v>-0.114</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.1217</v>
+        <v>-0.1071</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.2815</v>
+        <v>-0.2611</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.4055</v>
+        <v>-0.3797</v>
       </c>
     </row>
     <row r="34">
@@ -1768,28 +1768,28 @@
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" t="n">
-        <v>0.0053</v>
+        <v>0.0048</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0053</v>
+        <v>0.0048</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
       <c r="N35" t="n">
-        <v>0.005</v>
+        <v>0.0048</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0049</v>
+        <v>0.0048</v>
       </c>
       <c r="P35" t="n">
         <v>0.0048</v>
@@ -1845,16 +1845,16 @@
         <v>-0.0229</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0344</v>
+        <v>-0.0338</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.0223</v>
+        <v>-0.0218</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0221</v>
+        <v>-0.0215</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.0895</v>
+        <v>-1.0544</v>
       </c>
       <c r="M37" t="n">
         <v>-0.0002</v>
@@ -1863,7 +1863,7 @@
         <v>-0.0002</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.0112</v>
+        <v>-0.0108</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -1919,19 +1919,19 @@
         <v>-1.0198</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0307</v>
+        <v>-0.0301</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0206</v>
+        <v>-0.0202</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.5397</v>
+        <v>-0.5244</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.2625</v>
+        <v>-0.2541</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0349</v>
+        <v>-0.0337</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -1990,31 +1990,31 @@
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="n">
-        <v>0.4684</v>
+        <v>0.2124</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1953</v>
+        <v>0.1167</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0304</v>
+        <v>0.0052</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1427</v>
+        <v>0.129</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0901</v>
+        <v>-0.0642</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0537</v>
+        <v>-0.0069</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.0675</v>
+        <v>-0.0202</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0862</v>
+        <v>0.1256</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2116</v>
+        <v>0.2478</v>
       </c>
     </row>
     <row r="42">
@@ -2064,31 +2064,31 @@
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43" t="n">
-        <v>-0.0175</v>
+        <v>-0.017</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0182</v>
+        <v>-0.0173</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0119</v>
+        <v>-0.011</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0146</v>
+        <v>-0.0135</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.016</v>
+        <v>-0.0148</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0075</v>
+        <v>-0.0066</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0059</v>
+        <v>-0.005</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0021</v>
+        <v>-0.0014</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0009</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="44">
@@ -2138,31 +2138,31 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="n">
-        <v>-0.0222</v>
+        <v>-0.0263</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1278</v>
+        <v>-0.1313</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0773</v>
+        <v>-0.0821</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0521</v>
+        <v>0.0435</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0455</v>
+        <v>0.0407</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2085</v>
+        <v>0.1991</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1678</v>
+        <v>0.1603</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1362</v>
+        <v>0.1304</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1053</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="46">
@@ -2212,31 +2212,31 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" t="n">
-        <v>-0.2345</v>
+        <v>-0.2112</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.1839</v>
+        <v>-0.1491</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.1642</v>
+        <v>-0.1348</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.1361</v>
+        <v>-0.1083</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.1047</v>
+        <v>-0.079</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0985</v>
+        <v>-0.0737</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.0807</v>
+        <v>-0.0568</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.0573</v>
+        <v>-0.0346</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.0196</v>
+        <v>-0.0093</v>
       </c>
     </row>
     <row r="48">
@@ -2286,31 +2286,31 @@
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49" t="n">
-        <v>0.0084</v>
+        <v>0.0162</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0085</v>
+        <v>0.0111</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0084</v>
+        <v>0.0094</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0083</v>
+        <v>0.0089</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0083</v>
+        <v>0.0079</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0084</v>
+        <v>0.0073</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0082</v>
+        <v>0.0071</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0081</v>
+        <v>0.007</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0081</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="50">
@@ -2446,19 +2446,19 @@
         <v>-0.0006</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0008</v>
+        <v>-0.0007</v>
       </c>
       <c r="M53" t="n">
         <v>-0.0005</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.0015</v>
+        <v>-0.0014</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.0045</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="54">
@@ -2508,31 +2508,31 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55" t="n">
-        <v>-0.2253</v>
+        <v>-0.2257</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.0842</v>
+        <v>-0.0832</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.0435</v>
+        <v>-0.043</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0339</v>
+        <v>-0.0335</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0236</v>
+        <v>-0.0233</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0147</v>
+        <v>-0.0145</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.0024</v>
+        <v>-0.0025</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0007</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="56">
@@ -2582,28 +2582,28 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="n">
-        <v>-0.0096</v>
+        <v>-0.0038</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.0072</v>
+        <v>-0.0047</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.0047</v>
+        <v>-0.0031</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0047</v>
+        <v>-0.0037</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.0034</v>
+        <v>-0.0029</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.0022</v>
+        <v>-0.0018</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.0022</v>
+        <v>-0.0019</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.0022</v>
+        <v>-0.0021</v>
       </c>
       <c r="P57" t="n">
         <v>-0.001</v>
@@ -2656,31 +2656,31 @@
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>13.321</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>14.361</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>15.191</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>15.785</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>16.158</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>16.395</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>16.55</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>16.644</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>16.706</v>
       </c>
     </row>
     <row r="60">
@@ -2730,31 +2730,31 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61" t="n">
-        <v>0.0008</v>
+        <v>0.0004</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0013</v>
+        <v>0.0003</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0012</v>
+        <v>0.0017</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0009</v>
+        <v>0.0017</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0008</v>
+        <v>0.0005</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0008</v>
+        <v>0.0005</v>
       </c>
       <c r="N61" t="n">
         <v>0.0008</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0007</v>
+        <v>0.0008</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0007</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="62">
@@ -2804,31 +2804,31 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63" t="n">
-        <v>0.2896</v>
+        <v>0.1413</v>
       </c>
       <c r="I63" t="n">
-        <v>0.216</v>
+        <v>0.1457</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1869</v>
+        <v>0.1731</v>
       </c>
       <c r="K63" t="n">
-        <v>0.048</v>
+        <v>0.0522</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2161</v>
+        <v>0.2253</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1183</v>
+        <v>0.1401</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0177</v>
+        <v>0.0363</v>
       </c>
       <c r="O63" t="n">
-        <v>1.4193</v>
+        <v>1.4433</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0879</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="64">
@@ -2878,31 +2878,31 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65" t="n">
-        <v>0.0025</v>
+        <v>0.0033</v>
       </c>
       <c r="I65" t="n">
-        <v>0.005</v>
+        <v>0.0064</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0053</v>
+        <v>0.0068</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0056</v>
+        <v>0.0083</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0062</v>
+        <v>0.0092</v>
       </c>
       <c r="M65" t="n">
-        <v>0.007</v>
+        <v>0.0096</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0004</v>
+        <v>0.0029</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.0059</v>
+        <v>-0.0038</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.0118</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="66">
@@ -2952,31 +2952,31 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="n">
-        <v>0.1219</v>
+        <v>0.0938</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2375</v>
+        <v>0.1954</v>
       </c>
       <c r="J67" t="n">
-        <v>0.3353</v>
+        <v>0.285</v>
       </c>
       <c r="K67" t="n">
-        <v>0.4744</v>
+        <v>0.422</v>
       </c>
       <c r="L67" t="n">
-        <v>0.4081</v>
+        <v>0.3808</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2159</v>
+        <v>0.2031</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0759</v>
+        <v>0.0736</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.0414</v>
+        <v>-0.0404</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.1557</v>
+        <v>-0.1509</v>
       </c>
     </row>
     <row r="68">
@@ -3026,31 +3026,31 @@
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69" t="n">
-        <v>-0.6648</v>
+        <v>-0.621</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.6869</v>
+        <v>-0.6079</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.624</v>
+        <v>-0.556</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.5673</v>
+        <v>-0.5064</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.5821</v>
+        <v>-0.5256</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.587</v>
+        <v>-0.5338</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.4619</v>
+        <v>-0.4131</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.174</v>
+        <v>-0.1345</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.0155</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="70">
@@ -3100,31 +3100,31 @@
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71" t="n">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="I71" t="n">
-        <v>0.002</v>
+        <v>0.0045</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0019</v>
+        <v>0.004</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
       <c r="L71" t="n">
-        <v>0.001</v>
+        <v>0.0023</v>
       </c>
       <c r="M71" t="n">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0009</v>
+        <v>0.0018</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0009</v>
+        <v>0.0031</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0009</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="72">
@@ -3174,31 +3174,31 @@
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73" t="n">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0028</v>
+        <v>0.0008</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0033</v>
+        <v>0.0043</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0031</v>
+        <v>0.0043</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0026</v>
+        <v>0.0049</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0019</v>
+        <v>0.0048</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0014</v>
+        <v>0.0043</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0011</v>
+        <v>0.0029</v>
       </c>
       <c r="P73" t="n">
-        <v>0.0007</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="74">
@@ -3248,31 +3248,31 @@
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75" t="n">
-        <v>-0.0102</v>
+        <v>-0.0063</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.0073</v>
+        <v>-0.0048</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.0048</v>
+        <v>-0.0041</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.0047</v>
+        <v>-0.0045</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.0035</v>
+        <v>-0.0033</v>
       </c>
       <c r="M75" t="n">
         <v>-0.002</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.002</v>
+        <v>-0.0019</v>
       </c>
       <c r="O75" t="n">
         <v>-0.0019</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.0008</v>
+        <v>-0.0006</v>
       </c>
     </row>
     <row r="76">
@@ -3322,31 +3322,31 @@
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77" t="n">
-        <v>0.0782</v>
+        <v>0.0419</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1228</v>
+        <v>0.0913</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1478</v>
+        <v>0.1063</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1556</v>
+        <v>0.1019</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1296</v>
+        <v>0.1033</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0971</v>
+        <v>0.0745</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0814</v>
+        <v>0.0705</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0657</v>
+        <v>0.0622</v>
       </c>
       <c r="P77" t="n">
-        <v>0.0496</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="78">
@@ -3396,31 +3396,31 @@
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79" t="n">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
       <c r="I79" t="n">
-        <v>0.002</v>
+        <v>0.0046</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0019</v>
+        <v>0.0029</v>
       </c>
       <c r="K79" t="n">
-        <v>0.002</v>
+        <v>0.0031</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0022</v>
+        <v>0.0217</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0021</v>
+        <v>0.0251</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0019</v>
+        <v>0.0137</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0018</v>
+        <v>0.0091</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0018</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="80">
@@ -3470,28 +3470,28 @@
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0011</v>
+        <v>0.019</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0007</v>
+        <v>0.0104</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0006</v>
+        <v>0.0122</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0004</v>
+        <v>0.0105</v>
       </c>
       <c r="M81" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.0003</v>
       </c>
-      <c r="N81" t="n">
-        <v>0.0002</v>
-      </c>
       <c r="O81" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="P81" t="n">
         <v>0.0001</v>
@@ -3544,31 +3544,31 @@
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83" t="n">
-        <v>0.0142</v>
+        <v>-0.3966</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.2086</v>
+        <v>-0.2997</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.1926</v>
+        <v>-0.2173</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.0444</v>
+        <v>-0.0489</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0116</v>
+        <v>0.1489</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.1572</v>
+        <v>-0.0205</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.3153</v>
+        <v>-0.1793</v>
       </c>
       <c r="O83" t="n">
-        <v>1.1741</v>
+        <v>1.305</v>
       </c>
       <c r="P83" t="n">
-        <v>0.4742</v>
+        <v>0.5765</v>
       </c>
     </row>
     <row r="84">
@@ -3618,31 +3618,31 @@
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>436.5</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>589.9</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>729.9</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>840.1</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>944.9</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1018.8</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1054.7</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1095.8</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>1117.4</v>
       </c>
     </row>
     <row r="86">
@@ -3692,31 +3692,31 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87" t="n">
-        <v>0.0928</v>
+        <v>0.0319</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0716</v>
+        <v>0.0536</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0628</v>
+        <v>0.0574</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0531</v>
+        <v>0.0565</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0426</v>
+        <v>0.0491</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0321</v>
+        <v>0.0469</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0333</v>
+        <v>0.0479</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0235</v>
+        <v>0.0439</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0138</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="88">
@@ -3766,28 +3766,28 @@
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -3843,16 +3843,16 @@
         <v>0.0004</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0004</v>
+        <v>0.001</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0004</v>
+        <v>0.0009</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0004</v>
+        <v>0.001</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0004</v>
+        <v>0.0354</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -3917,19 +3917,19 @@
         <v>0.0007</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0003</v>
+        <v>0.0009</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0003</v>
+        <v>0.0156</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0001</v>
+        <v>0.0086</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -3988,31 +3988,31 @@
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95" t="n">
-        <v>0.3679</v>
+        <v>0.112</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1187</v>
+        <v>0.0402</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.0753</v>
+        <v>-0.1005</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.0918</v>
+        <v>-0.1055</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.1603</v>
+        <v>-0.1344</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.2025</v>
+        <v>-0.1557</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.1584</v>
+        <v>-0.1111</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.1589</v>
+        <v>-0.1195</v>
       </c>
       <c r="P95" t="n">
-        <v>0.4801</v>
+        <v>0.5163</v>
       </c>
     </row>
     <row r="96">
@@ -4062,31 +4062,31 @@
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97" t="n">
-        <v>-0.0032</v>
+        <v>-0.0028</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.005</v>
+        <v>-0.0041</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0005</v>
+        <v>0.0015</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.0004</v>
+        <v>0.0007</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.0012</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.0016</v>
+        <v>-0.0007</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.0017</v>
+        <v>-0.0008</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.0019</v>
+        <v>-0.0011</v>
       </c>
       <c r="P97" t="n">
-        <v>-0.0017</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="98">
@@ -4136,31 +4136,31 @@
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99" t="n">
-        <v>-0.112</v>
+        <v>-0.1162</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1258</v>
+        <v>-0.1292</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.0858</v>
+        <v>-0.0906</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0191</v>
+        <v>0.0106</v>
       </c>
       <c r="L99" t="n">
-        <v>0.095</v>
+        <v>0.0902</v>
       </c>
       <c r="M99" t="n">
-        <v>0.301</v>
+        <v>0.2916</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2399</v>
+        <v>0.2324</v>
       </c>
       <c r="O99" t="n">
-        <v>0.1807</v>
+        <v>0.1749</v>
       </c>
       <c r="P99" t="n">
-        <v>0.123</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="100">
@@ -4210,31 +4210,31 @@
       <c r="F101"/>
       <c r="G101"/>
       <c r="H101" t="n">
-        <v>-0.0829</v>
+        <v>-0.0597</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1127</v>
+        <v>-0.0778</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.1074</v>
+        <v>-0.0779</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.1129</v>
+        <v>-0.085</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.1205</v>
+        <v>-0.0949</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.1214</v>
+        <v>-0.0966</v>
       </c>
       <c r="N101" t="n">
-        <v>-0.1224</v>
+        <v>-0.0985</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.1213</v>
+        <v>-0.0987</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.091</v>
+        <v>-0.0808</v>
       </c>
     </row>
     <row r="102">
@@ -4284,31 +4284,31 @@
       <c r="F103"/>
       <c r="G103"/>
       <c r="H103" t="n">
-        <v>-0.0111</v>
+        <v>-0.0032</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.0086</v>
+        <v>-0.006</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.0075</v>
+        <v>-0.0064</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.0063</v>
+        <v>-0.0058</v>
       </c>
       <c r="L103" t="n">
+        <v>-0.0056</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="N103" t="n">
         <v>-0.0052</v>
       </c>
-      <c r="M103" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="N103" t="n">
+      <c r="O103" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="O103" t="n">
-        <v>-0.0029</v>
-      </c>
       <c r="P103" t="n">
-        <v>-0.0018</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="104">
@@ -4453,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="108">
@@ -4506,31 +4506,31 @@
       <c r="F109"/>
       <c r="G109"/>
       <c r="H109" t="n">
-        <v>0.001</v>
+        <v>0.0006</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0014</v>
+        <v>0.0024</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0015</v>
+        <v>0.002</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
       <c r="L109" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M109" t="n">
         <v>0.0016</v>
       </c>
-      <c r="M109" t="n">
-        <v>0.0014</v>
-      </c>
       <c r="N109" t="n">
-        <v>0.0012</v>
+        <v>0.0011</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0011</v>
+        <v>0.0009</v>
       </c>
       <c r="P109" t="n">
-        <v>0.0009</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="110">

--- a/results/05-2022/contributions-comparison-05-2022.xlsx
+++ b/results/05-2022/contributions-comparison-05-2022.xlsx
@@ -806,10 +806,10 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="n">
-        <v>-0.0824</v>
+        <v>0.1146</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.045</v>
+        <v>-0.2406</v>
       </c>
       <c r="J9" t="n">
         <v>-0.0495</v>
@@ -954,31 +954,31 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>0.1353</v>
+        <v>0.0006</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1813</v>
+        <v>0.0491</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2009</v>
+        <v>0.0711</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1206</v>
+        <v>0.0484</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1261</v>
+        <v>0.1798</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0138</v>
+        <v>0.0433</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1178</v>
+        <v>-0.0098</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1074</v>
+        <v>-0.0532</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.1514</v>
+        <v>-0.0965</v>
       </c>
     </row>
     <row r="14">
@@ -1102,31 +1102,31 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="n">
-        <v>-0.0007</v>
+        <v>0.0682</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1876</v>
+        <v>-0.2077</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1201</v>
+        <v>-0.1207</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0609</v>
+        <v>-0.0848</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0505</v>
+        <v>-0.0507</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0229</v>
+        <v>-0.0232</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0326</v>
+        <v>-0.0329</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0642</v>
+        <v>-0.0644</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0544</v>
+        <v>-0.0547</v>
       </c>
     </row>
     <row r="18">
@@ -1324,25 +1324,25 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="n">
-        <v>-0.1718</v>
+        <v>-0.0884</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.0194</v>
+        <v>-0.7622</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.6648</v>
+        <v>-0.4149</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.2634</v>
+        <v>-0.27</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0447</v>
+        <v>-0.1292</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1835</v>
+        <v>-0.0661</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0672</v>
+        <v>-0.1769</v>
       </c>
       <c r="O23" t="n">
         <v>-0.0117</v>
@@ -1398,31 +1398,31 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="n">
-        <v>-0.1949</v>
+        <v>-0.1803</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1775</v>
+        <v>-0.1796</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0656</v>
+        <v>-0.0664</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0536</v>
+        <v>-0.0543</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6002</v>
+        <v>-0.601</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6329</v>
+        <v>-0.633</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3093</v>
+        <v>-0.3094</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1898</v>
+        <v>-0.1899</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.3251</v>
+        <v>-0.3258</v>
       </c>
     </row>
     <row r="26">
@@ -1445,7 +1445,7 @@
         <v>-1.0718</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.9903</v>
+        <v>-0.9899</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -1472,31 +1472,31 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27" t="n">
-        <v>-1.4714</v>
+        <v>-1.4822</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.0099</v>
+        <v>-1.019</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.4101</v>
+        <v>-0.4185</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.399</v>
+        <v>-0.4068</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3045</v>
+        <v>-0.3092</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.1418</v>
+        <v>-0.1444</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0045</v>
+        <v>-0.0072</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0007</v>
+        <v>-0.0016</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1546,31 +1546,31 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29" t="n">
-        <v>-4.1001</v>
+        <v>-4.1061</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.5726</v>
+        <v>-3.501</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.3133</v>
+        <v>-2.2257</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.016</v>
+        <v>-2.1498</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.9031</v>
+        <v>-2.9398</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.1515</v>
+        <v>-1.3519</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.8051</v>
+        <v>-0.9488</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.5249</v>
+        <v>-0.4768</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.5631</v>
+        <v>-0.5114</v>
       </c>
     </row>
     <row r="30">
@@ -1694,10 +1694,10 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="n">
-        <v>-0.0953</v>
+        <v>0.1018</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0038</v>
+        <v>-0.1918</v>
       </c>
       <c r="J33" t="n">
         <v>-0.0174</v>
@@ -1990,10 +1990,10 @@
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="n">
-        <v>0.2124</v>
+        <v>0.0154</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1167</v>
+        <v>0.3123</v>
       </c>
       <c r="J41" t="n">
         <v>0.0052</v>
@@ -2138,31 +2138,31 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="n">
-        <v>-0.0263</v>
+        <v>-0.0492</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1313</v>
+        <v>-0.154</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0821</v>
+        <v>-0.105</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0435</v>
+        <v>0.0207</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0407</v>
+        <v>0.0393</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1991</v>
+        <v>0.1934</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1603</v>
+        <v>0.1558</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1304</v>
+        <v>0.1266</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1008</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="46">
@@ -2481,7 +2481,7 @@
         <v>-0.0919</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1278</v>
+        <v>-0.1281</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
@@ -2508,31 +2508,31 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55" t="n">
-        <v>-0.2257</v>
+        <v>-0.2303</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.0832</v>
+        <v>-0.0825</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.043</v>
+        <v>-0.0427</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0335</v>
+        <v>-0.0331</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0233</v>
+        <v>-0.0219</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0145</v>
+        <v>-0.0136</v>
       </c>
       <c r="N55" t="n">
         <v>-0.0025</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0005</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="56">
@@ -2804,10 +2804,10 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63" t="n">
-        <v>0.1413</v>
+        <v>0.3384</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1457</v>
+        <v>-0.0499</v>
       </c>
       <c r="J63" t="n">
         <v>0.1731</v>
@@ -2952,31 +2952,31 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="n">
-        <v>0.0938</v>
+        <v>-0.0409</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1954</v>
+        <v>0.0632</v>
       </c>
       <c r="J67" t="n">
-        <v>0.285</v>
+        <v>0.1552</v>
       </c>
       <c r="K67" t="n">
-        <v>0.422</v>
+        <v>0.3498</v>
       </c>
       <c r="L67" t="n">
-        <v>0.3808</v>
+        <v>0.4344</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2031</v>
+        <v>0.2602</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0736</v>
+        <v>0.1816</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.0404</v>
+        <v>0.0138</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.1509</v>
+        <v>-0.0959</v>
       </c>
     </row>
     <row r="68">
@@ -3100,31 +3100,31 @@
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71" t="n">
-        <v>0.001</v>
+        <v>0.0699</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0045</v>
+        <v>-0.0155</v>
       </c>
       <c r="J71" t="n">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0026</v>
+        <v>-0.0213</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0014</v>
+        <v>0.0011</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0028</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="72">
@@ -3322,25 +3322,25 @@
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77" t="n">
-        <v>0.0419</v>
+        <v>0.1253</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0913</v>
+        <v>0.3485</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1063</v>
+        <v>0.3561</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1019</v>
+        <v>0.0952</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1033</v>
+        <v>0.0188</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0745</v>
+        <v>-0.175</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0705</v>
+        <v>-0.1737</v>
       </c>
       <c r="O77" t="n">
         <v>0.0622</v>
@@ -3396,31 +3396,31 @@
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79" t="n">
-        <v>0.0014</v>
+        <v>0.016</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0046</v>
+        <v>0.0025</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0029</v>
+        <v>0.0021</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0031</v>
+        <v>0.0023</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0217</v>
+        <v>0.021</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0251</v>
+        <v>0.025</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0137</v>
+        <v>0.0136</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0091</v>
+        <v>0.0089</v>
       </c>
       <c r="P79" t="n">
-        <v>0.015</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="80">
@@ -3443,7 +3443,7 @@
         <v>0.0022</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0018</v>
+        <v>0.0022</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
@@ -3470,31 +3470,31 @@
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81" t="n">
-        <v>0.0016</v>
+        <v>-0.0092</v>
       </c>
       <c r="I81" t="n">
-        <v>0.019</v>
+        <v>0.0099</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0104</v>
+        <v>0.002</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0122</v>
+        <v>0.0043</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0105</v>
+        <v>0.0058</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0055</v>
+        <v>0.0029</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0003</v>
+        <v>-0.0023</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0001</v>
+        <v>-0.0021</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0001</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="82">
@@ -3544,31 +3544,31 @@
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83" t="n">
-        <v>-0.3966</v>
+        <v>-0.4026</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.2997</v>
+        <v>-0.2281</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.2173</v>
+        <v>-0.1297</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.0489</v>
+        <v>-0.1827</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1489</v>
+        <v>0.1122</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.0205</v>
+        <v>-0.2208</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.1793</v>
+        <v>-0.323</v>
       </c>
       <c r="O83" t="n">
-        <v>1.305</v>
+        <v>1.3531</v>
       </c>
       <c r="P83" t="n">
-        <v>0.5765</v>
+        <v>0.6281</v>
       </c>
     </row>
     <row r="84">
@@ -3692,10 +3692,10 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87" t="n">
-        <v>0.0319</v>
+        <v>0.229</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0536</v>
+        <v>-0.1419</v>
       </c>
       <c r="J87" t="n">
         <v>0.0574</v>
@@ -3988,10 +3988,10 @@
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95" t="n">
-        <v>0.112</v>
+        <v>-0.0851</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0402</v>
+        <v>0.2358</v>
       </c>
       <c r="J95" t="n">
         <v>-0.1005</v>
@@ -4136,31 +4136,31 @@
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99" t="n">
-        <v>-0.1162</v>
+        <v>-0.139</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1292</v>
+        <v>-0.152</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.0906</v>
+        <v>-0.1135</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0106</v>
+        <v>-0.0122</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0902</v>
+        <v>0.0888</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2916</v>
+        <v>0.2859</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2324</v>
+        <v>0.2279</v>
       </c>
       <c r="O99" t="n">
-        <v>0.1749</v>
+        <v>0.1712</v>
       </c>
       <c r="P99" t="n">
-        <v>0.1185</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="100">
@@ -4479,7 +4479,7 @@
         <v>0.0004</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
@@ -4506,31 +4506,31 @@
       <c r="F109"/>
       <c r="G109"/>
       <c r="H109" t="n">
-        <v>0.0006</v>
+        <v>-0.0039</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0024</v>
+        <v>0.0031</v>
       </c>
       <c r="J109" t="n">
-        <v>0.002</v>
+        <v>0.0023</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0021</v>
+        <v>0.0025</v>
       </c>
       <c r="L109" t="n">
-        <v>0.002</v>
+        <v>0.0033</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0016</v>
+        <v>0.0025</v>
       </c>
       <c r="N109" t="n">
         <v>0.0011</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0009</v>
+        <v>0.0012</v>
       </c>
       <c r="P109" t="n">
-        <v>0.0007</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="110">
